--- a/data-raw/datalist_imprimerie.xlsx
+++ b/data-raw/datalist_imprimerie.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A472DE-C41A-4156-85F4-1755200FAAA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDC2604-E1F6-43F4-AC36-254F2451E26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="57600" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modèle_de_feuille_de_données" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="42">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Numéro courant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-(numéro personnel, ID, AVS)</t>
-    </r>
-  </si>
   <si>
     <r>
       <rPr>
@@ -373,6 +351,28 @@
   </si>
   <si>
     <t xml:space="preserve">Directeur/trice </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Numéro courant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(numéro personnel, ID, etc.)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
   <dimension ref="A1:W319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -949,73 +949,73 @@
   <sheetData>
     <row r="1" spans="1:23" customFormat="1" ht="216.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1088,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1141,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1194,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1300,7 +1300,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1353,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1406,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1459,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1512,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1565,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1618,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1724,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1777,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1830,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1883,7 +1883,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1936,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1989,7 +1989,7 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2042,7 +2042,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2095,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2148,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -2201,7 +2201,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2254,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2307,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2360,7 +2360,7 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -2413,7 +2413,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2466,7 +2466,7 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2519,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -2572,7 +2572,7 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -2625,7 +2625,7 @@
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -2678,7 +2678,7 @@
         <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -2837,7 +2837,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -2890,7 +2890,7 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2943,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -2996,7 +2996,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3049,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3102,7 +3102,7 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3155,7 +3155,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -3208,7 +3208,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -3261,7 +3261,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3314,7 +3314,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -3367,7 +3367,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -3420,7 +3420,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -3473,7 +3473,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -3526,7 +3526,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -3579,7 +3579,7 @@
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -3632,7 +3632,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -3685,7 +3685,7 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -3738,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -3791,7 +3791,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -3844,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -3897,7 +3897,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -3950,7 +3950,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -4003,7 +4003,7 @@
         <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -4056,7 +4056,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -4109,7 +4109,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -4162,7 +4162,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -4215,7 +4215,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -4268,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -4321,7 +4321,7 @@
         <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -4374,7 +4374,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -4427,7 +4427,7 @@
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -4480,7 +4480,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -4533,7 +4533,7 @@
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -4586,7 +4586,7 @@
         <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -4639,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -4692,7 +4692,7 @@
         <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -4745,7 +4745,7 @@
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -4798,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -4851,7 +4851,7 @@
         <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -4904,7 +4904,7 @@
         <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -4957,7 +4957,7 @@
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -5010,7 +5010,7 @@
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -5063,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>4</v>
@@ -5116,7 +5116,7 @@
         <v>8</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -5169,7 +5169,7 @@
         <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -5222,7 +5222,7 @@
         <v>6</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -5275,7 +5275,7 @@
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -5328,7 +5328,7 @@
         <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -5381,7 +5381,7 @@
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -5434,7 +5434,7 @@
         <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -5487,7 +5487,7 @@
         <v>6</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G86">
         <v>3</v>
@@ -5540,7 +5540,7 @@
         <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -5593,7 +5593,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -5646,7 +5646,7 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G89">
         <v>3</v>
@@ -5699,7 +5699,7 @@
         <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -5752,7 +5752,7 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -5805,7 +5805,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -5858,7 +5858,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93">
         <v>3</v>
@@ -5911,7 +5911,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -5964,7 +5964,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -6017,7 +6017,7 @@
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -6070,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="R97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
@@ -6126,7 +6126,7 @@
         <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G98">
         <v>3</v>
@@ -6179,7 +6179,7 @@
         <v>3</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -6232,7 +6232,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -6285,7 +6285,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -6338,7 +6338,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -6391,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -6444,7 +6444,7 @@
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -6550,7 +6550,7 @@
         <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -6603,7 +6603,7 @@
         <v>6</v>
       </c>
       <c r="F107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -6656,7 +6656,7 @@
         <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G108">
         <v>3</v>
@@ -6709,7 +6709,7 @@
         <v>6</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -6762,7 +6762,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -6815,7 +6815,7 @@
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>3</v>
@@ -6868,7 +6868,7 @@
         <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -6921,7 +6921,7 @@
         <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -6974,7 +6974,7 @@
         <v>3</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -7027,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -7080,7 +7080,7 @@
         <v>3</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -7133,7 +7133,7 @@
         <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -7186,7 +7186,7 @@
         <v>6</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G118">
         <v>3</v>
@@ -7239,7 +7239,7 @@
         <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -7292,7 +7292,7 @@
         <v>6</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -7345,7 +7345,7 @@
         <v>6</v>
       </c>
       <c r="F121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -7398,7 +7398,7 @@
         <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -7451,7 +7451,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -7504,7 +7504,7 @@
         <v>6</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -7557,7 +7557,7 @@
         <v>6</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -7610,7 +7610,7 @@
         <v>7</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G126">
         <v>3</v>
@@ -7663,7 +7663,7 @@
         <v>6</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -7716,7 +7716,7 @@
         <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -7769,7 +7769,7 @@
         <v>6</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G129">
         <v>3</v>
@@ -7822,7 +7822,7 @@
         <v>6</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -7875,7 +7875,7 @@
         <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -7928,7 +7928,7 @@
         <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -7981,7 +7981,7 @@
         <v>6</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133">
         <v>3</v>
@@ -8034,7 +8034,7 @@
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -8087,7 +8087,7 @@
         <v>7</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -8140,7 +8140,7 @@
         <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -8193,7 +8193,7 @@
         <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -8246,7 +8246,7 @@
         <v>3</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -8299,7 +8299,7 @@
         <v>7</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G139">
         <v>4</v>
@@ -8352,7 +8352,7 @@
         <v>8</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -8405,7 +8405,7 @@
         <v>6</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -8458,7 +8458,7 @@
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -8511,7 +8511,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -8564,7 +8564,7 @@
         <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -8617,7 +8617,7 @@
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -8670,7 +8670,7 @@
         <v>6</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -8723,7 +8723,7 @@
         <v>6</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -8776,7 +8776,7 @@
         <v>6</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -8829,7 +8829,7 @@
         <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>4</v>
@@ -8882,7 +8882,7 @@
         <v>7</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -8935,7 +8935,7 @@
         <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -8988,7 +8988,7 @@
         <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -9041,7 +9041,7 @@
         <v>2</v>
       </c>
       <c r="F153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G153">
         <v>2</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="R153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
@@ -9097,7 +9097,7 @@
         <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -9150,7 +9150,7 @@
         <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -9203,7 +9203,7 @@
         <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -9256,7 +9256,7 @@
         <v>6</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -9309,7 +9309,7 @@
         <v>6</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -9362,7 +9362,7 @@
         <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -9415,7 +9415,7 @@
         <v>7</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -9468,7 +9468,7 @@
         <v>7</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -9521,7 +9521,7 @@
         <v>7</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G162" s="1">
         <v>3</v>
@@ -9574,7 +9574,7 @@
         <v>7</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G163" s="1">
         <v>3</v>
@@ -9627,7 +9627,7 @@
         <v>6</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G164" s="1">
         <v>3</v>
@@ -9680,7 +9680,7 @@
         <v>6</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G165" s="1">
         <v>3</v>
@@ -9733,7 +9733,7 @@
         <v>6</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G166" s="1">
         <v>2</v>
@@ -9769,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="R166" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
@@ -9789,7 +9789,7 @@
         <v>6</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G167" s="1">
         <v>2</v>
@@ -9842,7 +9842,7 @@
         <v>6</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G168" s="1">
         <v>3</v>
@@ -9895,7 +9895,7 @@
         <v>3</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" s="1">
         <v>3</v>
@@ -9948,7 +9948,7 @@
         <v>8</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G170" s="1">
         <v>3</v>
@@ -10001,7 +10001,7 @@
         <v>7</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G171" s="1">
         <v>3</v>
@@ -10054,7 +10054,7 @@
         <v>6</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G172" s="1">
         <v>3</v>
@@ -10107,7 +10107,7 @@
         <v>6</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G173" s="1">
         <v>3</v>
@@ -10160,7 +10160,7 @@
         <v>6</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G174" s="1">
         <v>3</v>
@@ -10213,7 +10213,7 @@
         <v>6</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G175" s="1">
         <v>3</v>
@@ -10266,7 +10266,7 @@
         <v>8</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G176" s="1">
         <v>3</v>
@@ -10319,7 +10319,7 @@
         <v>7</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G177" s="1">
         <v>3</v>
@@ -10372,7 +10372,7 @@
         <v>7</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G178" s="1">
         <v>3</v>
@@ -10425,7 +10425,7 @@
         <v>6</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G179" s="1">
         <v>3</v>
@@ -10478,7 +10478,7 @@
         <v>6</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G180" s="1">
         <v>3</v>
@@ -10531,7 +10531,7 @@
         <v>6</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G181" s="1">
         <v>3</v>
@@ -10584,7 +10584,7 @@
         <v>8</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G182" s="1">
         <v>3</v>
@@ -10637,7 +10637,7 @@
         <v>7</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G183" s="1">
         <v>3</v>
@@ -10690,7 +10690,7 @@
         <v>7</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" s="1">
         <v>3</v>
@@ -10743,7 +10743,7 @@
         <v>6</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G185" s="1">
         <v>3</v>
@@ -10796,7 +10796,7 @@
         <v>3</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G186" s="1">
         <v>1</v>
@@ -10852,7 +10852,7 @@
         <v>3</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G187" s="1">
         <v>2</v>
@@ -10905,7 +10905,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G188" s="1">
         <v>3</v>
@@ -10958,7 +10958,7 @@
         <v>6</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G189" s="1">
         <v>3</v>
@@ -11011,7 +11011,7 @@
         <v>6</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G190" s="1">
         <v>3</v>
@@ -11064,7 +11064,7 @@
         <v>6</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G191" s="1">
         <v>3</v>
@@ -11117,7 +11117,7 @@
         <v>8</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" s="1">
         <v>3</v>
@@ -11170,7 +11170,7 @@
         <v>6</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G193" s="1">
         <v>3</v>
@@ -11223,7 +11223,7 @@
         <v>6</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G194" s="1">
         <v>3</v>
@@ -11276,7 +11276,7 @@
         <v>6</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G195" s="1">
         <v>3</v>
@@ -11329,7 +11329,7 @@
         <v>2</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G196" s="1">
         <v>2</v>
@@ -11382,7 +11382,7 @@
         <v>6</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197" s="1">
         <v>3</v>
@@ -11435,7 +11435,7 @@
         <v>6</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G198" s="1">
         <v>3</v>
@@ -11488,7 +11488,7 @@
         <v>7</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G199" s="1">
         <v>4</v>
@@ -11541,7 +11541,7 @@
         <v>7</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G200" s="1">
         <v>3</v>
@@ -11594,7 +11594,7 @@
         <v>7</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G201" s="1">
         <v>3</v>
@@ -11647,7 +11647,7 @@
         <v>6</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G202" s="1">
         <v>3</v>
@@ -11700,7 +11700,7 @@
         <v>2</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G203" s="1">
         <v>2</v>
@@ -11753,7 +11753,7 @@
         <v>3</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G204" s="1">
         <v>3</v>
@@ -11806,7 +11806,7 @@
         <v>6</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G205" s="1">
         <v>3</v>
@@ -11859,7 +11859,7 @@
         <v>6</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G206" s="1">
         <v>3</v>
@@ -11912,7 +11912,7 @@
         <v>3</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G207" s="1">
         <v>3</v>
@@ -11965,7 +11965,7 @@
         <v>8</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G208" s="1">
         <v>3</v>
@@ -12018,7 +12018,7 @@
         <v>6</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G209" s="1">
         <v>3</v>
@@ -12071,7 +12071,7 @@
         <v>7</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G210" s="1">
         <v>3</v>
@@ -12124,7 +12124,7 @@
         <v>7</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G211" s="1">
         <v>3</v>
@@ -12177,7 +12177,7 @@
         <v>7</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" s="1">
         <v>3</v>
@@ -12230,7 +12230,7 @@
         <v>6</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G213" s="1">
         <v>3</v>
@@ -12283,7 +12283,7 @@
         <v>7</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G214" s="1">
         <v>3</v>
@@ -12336,7 +12336,7 @@
         <v>7</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G215" s="1">
         <v>3</v>
@@ -12389,7 +12389,7 @@
         <v>6</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G216" s="1">
         <v>3</v>
@@ -12442,7 +12442,7 @@
         <v>8</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G217" s="1">
         <v>4</v>
@@ -12495,7 +12495,7 @@
         <v>7</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G218" s="1">
         <v>3</v>
@@ -12548,7 +12548,7 @@
         <v>8</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G219" s="1">
         <v>3</v>
@@ -12601,7 +12601,7 @@
         <v>6</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" s="1">
         <v>2</v>
@@ -12654,7 +12654,7 @@
         <v>6</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G221" s="1">
         <v>3</v>
@@ -12707,7 +12707,7 @@
         <v>6</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G222" s="1">
         <v>3</v>
@@ -12760,7 +12760,7 @@
         <v>7</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G223" s="1">
         <v>4</v>
@@ -12813,7 +12813,7 @@
         <v>7</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G224" s="1">
         <v>3</v>
@@ -12866,7 +12866,7 @@
         <v>8</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G225" s="1">
         <v>3</v>
@@ -12919,7 +12919,7 @@
         <v>7</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G226" s="1">
         <v>3</v>
@@ -12972,7 +12972,7 @@
         <v>7</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G227" s="1">
         <v>3</v>
@@ -13025,7 +13025,7 @@
         <v>7</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G228" s="1">
         <v>3</v>
@@ -13078,7 +13078,7 @@
         <v>6</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G229" s="1">
         <v>3</v>
@@ -13131,7 +13131,7 @@
         <v>6</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G230" s="1">
         <v>3</v>
@@ -13184,7 +13184,7 @@
         <v>6</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G231" s="1">
         <v>3</v>
@@ -13237,7 +13237,7 @@
         <v>7</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G232" s="1">
         <v>3</v>
@@ -13290,7 +13290,7 @@
         <v>7</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G233" s="1">
         <v>3</v>
@@ -13343,7 +13343,7 @@
         <v>7</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G234" s="1">
         <v>4</v>
@@ -13396,7 +13396,7 @@
         <v>7</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G235" s="1">
         <v>4</v>
@@ -13449,7 +13449,7 @@
         <v>7</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G236" s="1">
         <v>4</v>
@@ -13502,7 +13502,7 @@
         <v>7</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G237" s="1">
         <v>3</v>
@@ -13555,7 +13555,7 @@
         <v>6</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" s="1">
         <v>3</v>
@@ -13608,7 +13608,7 @@
         <v>7</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G239" s="1">
         <v>3</v>
@@ -13661,7 +13661,7 @@
         <v>6</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G240" s="1">
         <v>3</v>
@@ -13714,7 +13714,7 @@
         <v>6</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G241" s="1">
         <v>2</v>
@@ -13767,7 +13767,7 @@
         <v>2</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G242" s="1">
         <v>3</v>
@@ -13820,7 +13820,7 @@
         <v>8</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G243" s="1">
         <v>4</v>
@@ -13873,7 +13873,7 @@
         <v>7</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G244" s="1">
         <v>4</v>
@@ -13926,7 +13926,7 @@
         <v>7</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G245" s="1">
         <v>4</v>
@@ -13979,7 +13979,7 @@
         <v>7</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G246" s="1">
         <v>3</v>
@@ -14032,7 +14032,7 @@
         <v>7</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G247" s="1">
         <v>3</v>
@@ -14085,7 +14085,7 @@
         <v>7</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G248" s="1">
         <v>3</v>
@@ -14138,7 +14138,7 @@
         <v>6</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G249" s="1">
         <v>3</v>
@@ -14191,7 +14191,7 @@
         <v>7</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G250" s="1">
         <v>4</v>
@@ -14244,7 +14244,7 @@
         <v>8</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G251" s="1">
         <v>3</v>
@@ -14297,7 +14297,7 @@
         <v>7</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G252" s="1">
         <v>3</v>
@@ -14350,7 +14350,7 @@
         <v>7</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G253" s="1">
         <v>3</v>
@@ -14403,7 +14403,7 @@
         <v>7</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G254" s="1">
         <v>3</v>
@@ -14456,7 +14456,7 @@
         <v>6</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G255" s="1">
         <v>3</v>
@@ -14509,7 +14509,7 @@
         <v>6</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G256" s="1">
         <v>3</v>
@@ -14562,7 +14562,7 @@
         <v>3</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G257" s="1">
         <v>2</v>
@@ -14615,7 +14615,7 @@
         <v>6</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G258" s="1">
         <v>3</v>
@@ -14668,7 +14668,7 @@
         <v>6</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G259" s="1">
         <v>3</v>
@@ -14721,7 +14721,7 @@
         <v>7</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G260" s="1">
         <v>3</v>
@@ -14774,7 +14774,7 @@
         <v>7</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G261" s="1">
         <v>3</v>
@@ -14827,7 +14827,7 @@
         <v>6</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G262" s="1">
         <v>3</v>
@@ -14880,7 +14880,7 @@
         <v>7</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G263" s="1">
         <v>3</v>
@@ -14933,7 +14933,7 @@
         <v>6</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G264" s="1">
         <v>3</v>
@@ -14986,7 +14986,7 @@
         <v>6</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G265" s="1">
         <v>3</v>
@@ -15039,7 +15039,7 @@
         <v>6</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G266" s="1">
         <v>3</v>
@@ -15092,7 +15092,7 @@
         <v>6</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G267" s="1">
         <v>3</v>
@@ -15145,7 +15145,7 @@
         <v>2</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G268" s="1">
         <v>3</v>
@@ -15198,7 +15198,7 @@
         <v>6</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G269" s="1">
         <v>3</v>
@@ -15251,7 +15251,7 @@
         <v>6</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G270" s="1">
         <v>3</v>
@@ -15304,7 +15304,7 @@
         <v>7</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G271" s="1">
         <v>4</v>
@@ -15357,7 +15357,7 @@
         <v>8</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G272" s="1">
         <v>3</v>
@@ -15410,7 +15410,7 @@
         <v>8</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G273" s="1">
         <v>3</v>
@@ -15463,7 +15463,7 @@
         <v>7</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G274" s="1">
         <v>3</v>
@@ -15516,7 +15516,7 @@
         <v>7</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G275" s="1">
         <v>3</v>
@@ -15569,7 +15569,7 @@
         <v>7</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G276" s="1">
         <v>3</v>
@@ -15622,7 +15622,7 @@
         <v>7</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G277" s="1">
         <v>3</v>
@@ -15675,7 +15675,7 @@
         <v>7</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G278" s="1">
         <v>3</v>
@@ -15728,7 +15728,7 @@
         <v>6</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G279" s="1">
         <v>3</v>
@@ -15781,7 +15781,7 @@
         <v>7</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G280" s="1">
         <v>4</v>
@@ -15834,7 +15834,7 @@
         <v>8</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G281" s="1">
         <v>3</v>
@@ -15887,7 +15887,7 @@
         <v>7</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G282" s="1">
         <v>3</v>
@@ -15940,7 +15940,7 @@
         <v>8</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G283" s="1">
         <v>3</v>
@@ -15993,7 +15993,7 @@
         <v>6</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G284" s="1">
         <v>3</v>
@@ -16046,7 +16046,7 @@
         <v>7</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G285" s="1">
         <v>3</v>
@@ -16099,7 +16099,7 @@
         <v>7</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G286" s="1">
         <v>4</v>
@@ -16152,7 +16152,7 @@
         <v>8</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G287" s="1">
         <v>3</v>
@@ -16205,7 +16205,7 @@
         <v>7</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G288" s="1">
         <v>3</v>
@@ -16258,7 +16258,7 @@
         <v>6</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G289" s="1">
         <v>3</v>
@@ -16311,7 +16311,7 @@
         <v>6</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G290" s="1">
         <v>3</v>
@@ -16364,7 +16364,7 @@
         <v>6</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G291" s="1">
         <v>3</v>
@@ -16417,7 +16417,7 @@
         <v>6</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G292" s="1">
         <v>3</v>
@@ -16470,7 +16470,7 @@
         <v>6</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G293" s="1">
         <v>3</v>
@@ -16523,7 +16523,7 @@
         <v>6</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G294" s="1">
         <v>3</v>
@@ -16576,7 +16576,7 @@
         <v>6</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G295" s="1">
         <v>3</v>
@@ -16629,7 +16629,7 @@
         <v>6</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G296" s="1">
         <v>3</v>
@@ -16682,7 +16682,7 @@
         <v>7</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G297" s="1">
         <v>4</v>
@@ -16735,7 +16735,7 @@
         <v>7</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G298" s="1">
         <v>4</v>
@@ -16788,7 +16788,7 @@
         <v>6</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G299" s="1">
         <v>3</v>
@@ -16841,7 +16841,7 @@
         <v>6</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G300" s="1">
         <v>3</v>
@@ -16894,7 +16894,7 @@
         <v>7</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G301" s="1">
         <v>3</v>
@@ -16947,7 +16947,7 @@
         <v>7</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G302" s="1">
         <v>4</v>
@@ -17000,7 +17000,7 @@
         <v>6</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G303" s="1">
         <v>3</v>
@@ -17053,7 +17053,7 @@
         <v>6</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G304" s="1">
         <v>2</v>
@@ -17109,7 +17109,7 @@
         <v>6</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G305" s="1">
         <v>3</v>
@@ -17162,7 +17162,7 @@
         <v>6</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G306" s="1">
         <v>3</v>
@@ -17215,7 +17215,7 @@
         <v>8</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G307" s="1">
         <v>3</v>
@@ -17268,7 +17268,7 @@
         <v>7</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G308" s="1">
         <v>3</v>
@@ -17321,7 +17321,7 @@
         <v>7</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G309" s="1">
         <v>3</v>
@@ -17374,7 +17374,7 @@
         <v>6</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G310" s="1">
         <v>3</v>
@@ -17427,7 +17427,7 @@
         <v>6</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G311" s="1">
         <v>3</v>
@@ -17480,7 +17480,7 @@
         <v>7</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G312" s="1">
         <v>4</v>
@@ -17533,7 +17533,7 @@
         <v>7</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G313" s="1">
         <v>3</v>
@@ -17586,7 +17586,7 @@
         <v>6</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G314" s="1">
         <v>3</v>
@@ -17639,7 +17639,7 @@
         <v>6</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G315" s="1">
         <v>3</v>
@@ -17692,7 +17692,7 @@
         <v>7</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G316" s="1">
         <v>4</v>
@@ -17745,7 +17745,7 @@
         <v>7</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G317" s="1">
         <v>3</v>
@@ -17798,7 +17798,7 @@
         <v>8</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G318" s="1">
         <v>3</v>
@@ -17851,7 +17851,7 @@
         <v>6</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G319" s="1">
         <v>3</v>
